--- a/CIS355FALL2014schedule.xlsx
+++ b/CIS355FALL2014schedule.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="98">
   <si>
     <t>topic</t>
   </si>
@@ -261,9 +261,6 @@
     <t>PROF OUT OF TOWN - video lecture</t>
   </si>
   <si>
-    <t>homework 1 - PVFC queries</t>
-  </si>
-  <si>
     <t>desert code camp this Saturday</t>
   </si>
   <si>
@@ -282,9 +279,6 @@
     <t>Chris &amp; Schuyler's honors contract topics</t>
   </si>
   <si>
-    <t>individual homework - PVFC queries</t>
-  </si>
-  <si>
     <t>ER diagram + requirements</t>
   </si>
   <si>
@@ -313,6 +307,15 @@
   </si>
   <si>
     <t>a data web service model</t>
+  </si>
+  <si>
+    <t>project report + data set discovery</t>
+  </si>
+  <si>
+    <t>homework 1 - dataset discovery</t>
+  </si>
+  <si>
+    <t>K+R chapter 21</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1169,7 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,7 +1181,7 @@
     <col min="5" max="5" width="30.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.85546875" style="6" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" style="6" customWidth="1"/>
     <col min="9" max="9" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="6"/>
   </cols>
@@ -1191,7 +1194,7 @@
       <c r="E1" s="43"/>
       <c r="F1" s="44">
         <f ca="1">TODAY()</f>
-        <v>41939</v>
+        <v>41964</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1361,13 +1364,13 @@
       </c>
       <c r="D11" s="55"/>
       <c r="E11" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>71</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I11" s="41">
         <v>5</v>
@@ -1451,15 +1454,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="55"/>
-      <c r="E15" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="40">
-        <v>5</v>
-      </c>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:9" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
@@ -1528,7 +1523,7 @@
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H19" s="40" t="s">
         <v>60</v>
@@ -1546,7 +1541,7 @@
         <v>41932</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="14"/>
@@ -1576,7 +1571,7 @@
         <v>41939</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="14" t="s">
@@ -1597,7 +1592,7 @@
         <v>41941</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D23" s="55"/>
       <c r="E23" s="13"/>
@@ -1611,7 +1606,7 @@
         <v>41946</v>
       </c>
       <c r="C24" s="69" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="14"/>
@@ -1624,7 +1619,7 @@
         <v>41948</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D25" s="55"/>
       <c r="E25" s="13"/>
@@ -1641,7 +1636,7 @@
         <v>41953</v>
       </c>
       <c r="C26" s="62" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D26" s="49"/>
       <c r="E26" s="50" t="s">
@@ -1664,7 +1659,7 @@
         <v>41955</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D27" s="55"/>
       <c r="E27" s="13"/>
@@ -1678,12 +1673,12 @@
         <v>41960</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="14"/>
       <c r="F28" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1693,7 +1688,7 @@
         <v>41962</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D29" s="52"/>
       <c r="E29" s="13"/>
@@ -1707,14 +1702,14 @@
         <v>41967</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H30" s="41" t="s">
         <v>65</v>
@@ -1730,12 +1725,12 @@
         <v>41969</v>
       </c>
       <c r="C31" s="67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D31" s="59"/>
       <c r="E31" s="58"/>
       <c r="F31" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1749,8 +1744,16 @@
       <c r="C32" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="28"/>
+      <c r="D32" s="28" t="s">
+        <v>97</v>
+      </c>
       <c r="E32" s="38"/>
+      <c r="H32" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" s="40">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="1:9" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
@@ -1786,7 +1789,7 @@
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="27" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="H34" s="40" t="s">
         <v>61</v>
@@ -1820,7 +1823,7 @@
       </c>
       <c r="E36" s="46">
         <f ca="1">TODAY()</f>
-        <v>41939</v>
+        <v>41964</v>
       </c>
       <c r="I36" s="8">
         <f>SUM(I4:I35)</f>
